--- a/biology/Médecine/Société_nationale_de_médecine_et_des_sciences_médicales_de_Lyon/Société_nationale_de_médecine_et_des_sciences_médicales_de_Lyon.xlsx
+++ b/biology/Médecine/Société_nationale_de_médecine_et_des_sciences_médicales_de_Lyon/Société_nationale_de_médecine_et_des_sciences_médicales_de_Lyon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_nationale_de_m%C3%A9decine_et_des_sciences_m%C3%A9dicales_de_Lyon</t>
+          <t>Société_nationale_de_médecine_et_des_sciences_médicales_de_Lyon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société nationale de Médecine et des Sciences médicales de Lyon fut fondée en 1789 sous l'impulsion d'un groupe de médecins lyonnais conduit par Marc-Antoine Petit (qui devint plus tard chirurgien major du Grand Hôtel-Dieu de Lyon).
 C'est la plus ancienne société médicale de Lyon, héritière de l'ancien Collège des médecins de Lyon fondé par Symphorien Champier au XVIe siècle. Elle a été reconnue d'utilité publique par décret impérial du 27 février 1856 et par décret du 16 mai 1923.
-Elle regroupe en 1921 la Société des Sciences Médicales — Lyon[1], fondée en 1861 par le Dr Charles Chabalier.
+Elle regroupe en 1921 la Société des Sciences Médicales — Lyon, fondée en 1861 par le Dr Charles Chabalier.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_nationale_de_m%C3%A9decine_et_des_sciences_m%C3%A9dicales_de_Lyon</t>
+          <t>Société_nationale_de_médecine_et_des_sciences_médicales_de_Lyon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Membres célèbres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Liste incomplète :
 Amédée Bonnet (1809-1858)
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_nationale_de_m%C3%A9decine_et_des_sciences_m%C3%A9dicales_de_Lyon</t>
+          <t>Société_nationale_de_médecine_et_des_sciences_médicales_de_Lyon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,11 +567,48 @@
           <t>La Société de médecine aujourd'hui</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Présidée par le doyen honoraire Neidhardt, la Société nationale de médecine se tourne particulièrement vers l'étude de l'histoire de la médecine et de la chirurgie.
-Les collections anatomiques et médicales de la Société
-Elle possède de nombreuses collections d'anatomie et, plus largement, d'histoire naturelle médicale, qui sont déposées à l'Université Claude Bernard de Lyon. Celles-ci sont visibles au musée Testut-Latarjet (se référer aux liens ci-dessous).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Société_nationale_de_médecine_et_des_sciences_médicales_de_Lyon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_nationale_de_m%C3%A9decine_et_des_sciences_m%C3%A9dicales_de_Lyon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>La Société de médecine aujourd'hui</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les collections anatomiques et médicales de la Société</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle possède de nombreuses collections d'anatomie et, plus largement, d'histoire naturelle médicale, qui sont déposées à l'Université Claude Bernard de Lyon. Celles-ci sont visibles au musée Testut-Latarjet (se référer aux liens ci-dessous).
 Sa bibliothèque, conservée par la Bibliothèque municipale de Lyon, comporte 1 000 ouvrages anciens[réf. souhaitée], dont des incunables du XVe siècle.
 </t>
         </is>
